--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_per_day_fixed_period_3_sawtooth_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_per_day_fixed_period_3_sawtooth_10_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.26000000000051</v>
+        <v>25.55000000000055</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2115033818799892</v>
+        <v>0.182393735354921</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2115033818799892</v>
+        <v>0.182393735354921</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>5.445217219463768</v>
+        <v>5.321400776614244</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-2.772793513761181, 13.663227952688716]</t>
+          <t>[-1.8689102597817957, 12.511711813010283]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.1887419573744953</v>
+        <v>0.1430442892820889</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1887419573744953</v>
+        <v>0.1430442892820889</v>
       </c>
       <c r="P2" t="n">
-        <v>-2.075526678047311</v>
+        <v>-1.434000250287233</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-5.1196324725167, 0.9685791164220783]</t>
+          <t>[-3.660474323101621, 0.792473822527155]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.1764779631992908</v>
+        <v>0.2011672901143837</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1764779631992908</v>
+        <v>0.2011672901143837</v>
       </c>
       <c r="T2" t="n">
-        <v>10.45686393672599</v>
+        <v>10.81296338815584</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[6.120059514357527, 14.793668359094449]</t>
+          <t>[6.649596212017105, 14.976330564294575]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.481623525934062e-05</v>
+        <v>4.247773114585129e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>1.481623525934062e-05</v>
+        <v>4.247773114585129e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>8.344144144144312</v>
+        <v>5.831231231231357</v>
       </c>
       <c r="Y2" t="n">
-        <v>-3.893933933934013</v>
+        <v>-3.222522522522594</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.58222222222264</v>
+        <v>14.88498498498531</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.26000000000051</v>
+        <v>25.55000000000055</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.262561333442789</v>
+        <v>0.06092589672268289</v>
       </c>
       <c r="I3" t="n">
-        <v>0.262561333442789</v>
+        <v>0.06092589672268289</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>4.938614780815337</v>
+        <v>6.788725634092726</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-3.0932137992398125, 12.970443360870487]</t>
+          <t>[-0.3652264933547382, 13.94267776154019]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.2219773300233541</v>
+        <v>0.06235062103451305</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2219773300233541</v>
+        <v>0.06235062103451305</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.924579283280234</v>
+        <v>-1.786210838077079</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-4.981264027313546, 1.1321054607530785]</t>
+          <t>[-3.2705268866200043, -0.3018947895341544]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.2112701759956335</v>
+        <v>0.01944380036410309</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2112701759956335</v>
+        <v>0.01944380036410309</v>
       </c>
       <c r="T3" t="n">
-        <v>10.50496537406405</v>
+        <v>10.94939056181293</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[6.217109061029179, 14.79282168709892]</t>
+          <t>[6.903549392629213, 14.995231730996647]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.144037776912299e-05</v>
+        <v>2.023729830602505e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>1.144037776912299e-05</v>
+        <v>2.023729830602505e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>7.737297297297452</v>
+        <v>7.263463463463619</v>
       </c>
       <c r="Y3" t="n">
-        <v>-4.551351351351444</v>
+        <v>1.227627627627654</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.02594594594635</v>
+        <v>13.29929929929958</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.26000000000051</v>
+        <v>25.55000000000055</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2565840186099155</v>
+        <v>0.0732001129789932</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2565840186099155</v>
+        <v>0.0732001129789932</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>5.340455387255881</v>
+        <v>6.1016356456994</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-3.0935095262290346, 13.774420300740797]</t>
+          <t>[-0.7397473066362572, 12.943018598035056]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.2087314721139415</v>
+        <v>0.0791582708416807</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2087314721139415</v>
+        <v>0.0791582708416807</v>
       </c>
       <c r="P4" t="n">
-        <v>-2.125842476303003</v>
+        <v>-2.402579366709311</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-5.213974594246122, 0.9622896416401163]</t>
+          <t>[-5.434106211614778, 0.6289474781961557]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.1724283151564383</v>
+        <v>0.1174350449042469</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1724283151564383</v>
+        <v>0.1174350449042469</v>
       </c>
       <c r="T4" t="n">
-        <v>9.928625859648871</v>
+        <v>10.34057165520627</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[5.381515995988494, 14.47573572330925]</t>
+          <t>[6.715171818131548, 13.965971492280996]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>6.620388994083015e-05</v>
+        <v>7.460604833919859e-07</v>
       </c>
       <c r="W4" t="n">
-        <v>6.620388994083015e-05</v>
+        <v>7.460604833919859e-07</v>
       </c>
       <c r="X4" t="n">
-        <v>8.546426426426596</v>
+        <v>9.769869869870082</v>
       </c>
       <c r="Y4" t="n">
-        <v>-3.868648648648728</v>
+        <v>-2.557557557557617</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.96150150150192</v>
+        <v>22.09729729729778</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.26000000000051</v>
+        <v>25.55000000000055</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06781941626120314</v>
+        <v>0.2141117523654474</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06781941626120314</v>
+        <v>0.2141117523654474</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>6.080693399590848</v>
+        <v>4.744697695690796</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-0.8735652974261878, 13.034952096607883]</t>
+          <t>[-2.263387607907374, 11.752782999288966]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.08501550307286876</v>
+        <v>0.1794726564004889</v>
       </c>
       <c r="O5" t="n">
-        <v>0.08501550307286876</v>
+        <v>0.1794726564004889</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.327105669325773</v>
+        <v>-2.616421509296004</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-5.333474615103392, 0.6792632764518469]</t>
+          <t>[-5.691974677675201, 0.45913165908319353]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.125994262079397</v>
+        <v>0.09351577860857674</v>
       </c>
       <c r="S5" t="n">
-        <v>0.125994262079397</v>
+        <v>0.09351577860857674</v>
       </c>
       <c r="T5" t="n">
-        <v>10.11060390460359</v>
+        <v>10.37305802593923</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[6.521864733872146, 13.699343075335033]</t>
+          <t>[6.693241871384249, 14.05287418049421]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9.47985917321148e-07</v>
+        <v>9.376973959529522e-07</v>
       </c>
       <c r="W5" t="n">
-        <v>9.47985917321148e-07</v>
+        <v>9.376973959529522e-07</v>
       </c>
       <c r="X5" t="n">
-        <v>9.355555555555744</v>
+        <v>10.63943943943967</v>
       </c>
       <c r="Y5" t="n">
-        <v>-2.730810810810864</v>
+        <v>-1.867017017017059</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.44192192192235</v>
+        <v>23.1458958958964</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.26000000000051</v>
+        <v>25.55000000000055</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2043119481830364</v>
+        <v>0.1420197511469203</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2043119481830364</v>
+        <v>0.1420197511469203</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>6.497079162208501</v>
+        <v>6.151333739740043</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-2.759858822542941, 15.754017146959942]</t>
+          <t>[-1.6044264876143473, 13.907093967094433]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.1643544469170917</v>
+        <v>0.1171652047696998</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1643544469170917</v>
+        <v>0.1171652047696998</v>
       </c>
       <c r="P6" t="n">
-        <v>-2.868000500574466</v>
+        <v>-2.842842601446619</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-6.006448416773278, 0.2704474156243464]</t>
+          <t>[-4.767421884726854, -0.9182633181663848]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.07228824901031405</v>
+        <v>0.004697704622453225</v>
       </c>
       <c r="S6" t="n">
-        <v>0.07228824901031405</v>
+        <v>0.004697704622453225</v>
       </c>
       <c r="T6" t="n">
-        <v>11.84806724799955</v>
+        <v>11.02194190585711</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[6.883666976021161, 16.812467519977936]</t>
+          <t>[6.82288477658609, 15.220999035128127]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.74490792173021e-05</v>
+        <v>3.521154244845448e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>1.74490792173021e-05</v>
+        <v>3.521154244845448e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>11.53009009009032</v>
+        <v>11.56016016016041</v>
       </c>
       <c r="Y6" t="n">
-        <v>-1.08726726726729</v>
+        <v>3.73403403403411</v>
       </c>
       <c r="Z6" t="n">
-        <v>24.14744744744793</v>
+        <v>19.38628628628671</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.26000000000051</v>
+        <v>25.55000000000055</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.09899643764564747</v>
+        <v>0.1681981839067519</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09899643764564747</v>
+        <v>0.1681981839067519</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>6.702189468095967</v>
+        <v>5.401575121305743</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-0.7347618856680729, 14.139140821860007]</t>
+          <t>[-1.4161878053949266, 12.219338048006414]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.07617470963764483</v>
+        <v>0.1175482955915916</v>
       </c>
       <c r="O7" t="n">
-        <v>0.07617470963764483</v>
+        <v>0.1175482955915916</v>
       </c>
       <c r="P7" t="n">
-        <v>3.012658420559581</v>
+        <v>-3.018947895341543</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[1.46544762419704, 4.559869216922122]</t>
+          <t>[-5.597632555945778, -0.44026323473730855]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.0002972842724204838</v>
+        <v>0.02278130545144208</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0002972842724204838</v>
+        <v>0.02278130545144208</v>
       </c>
       <c r="T7" t="n">
-        <v>10.50334853646792</v>
+        <v>8.88529923136087</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[6.267788911647035, 14.738908161288801]</t>
+          <t>[5.01936998753502, 12.75122847518672]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>9.366692842904811e-06</v>
+        <v>3.127355575505142e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>9.366692842904811e-06</v>
+        <v>3.127355575505142e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>13.14834834834861</v>
+        <v>12.27627627627654</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.928168168168307</v>
+        <v>1.790290290290329</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.36852852852892</v>
+        <v>22.76226226226276</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.26000000000051</v>
+        <v>25.55000000000055</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2481526186955001</v>
+        <v>0.2001054815778973</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2481526186955001</v>
+        <v>0.2001054815778973</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>4.462085681812771</v>
+        <v>4.782604211502598</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-2.6389295346863175, 11.563100898311859]</t>
+          <t>[-2.2033636490169677, 11.768572072022163]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.2121671715407445</v>
+        <v>0.1747542437331042</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2121671715407445</v>
+        <v>0.1747542437331042</v>
       </c>
       <c r="P8" t="n">
-        <v>2.773658378845043</v>
+        <v>2.371131992799504</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.30818426431611545, 5.855501022006201]</t>
+          <t>[-0.761026448617347, 5.503290434216354]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.0765534537153123</v>
+        <v>0.1343236599594162</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0765534537153123</v>
+        <v>0.1343236599594162</v>
       </c>
       <c r="T8" t="n">
-        <v>8.992630707708781</v>
+        <v>11.21620281703205</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[5.281507197769778, 12.703754217647784]</t>
+          <t>[7.422731261708236, 15.009674372355867]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.368053460937269e-05</v>
+        <v>3.639862453663767e-07</v>
       </c>
       <c r="W8" t="n">
-        <v>1.368053460937269e-05</v>
+        <v>3.639862453663767e-07</v>
       </c>
       <c r="X8" t="n">
-        <v>14.10918918918947</v>
+        <v>15.90800800800835</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.719399399399435</v>
+        <v>3.171371371371443</v>
       </c>
       <c r="Z8" t="n">
-        <v>26.49897897897951</v>
+        <v>28.64464464464526</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.26000000000051</v>
+        <v>25.55000000000055</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2063622993419177</v>
+        <v>0.1602024317953082</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2063622993419177</v>
+        <v>0.1602024317953082</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>5.471470255549432</v>
+        <v>6.107539006685122</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-2.794144611749596, 13.73708512284846]</t>
+          <t>[-2.6556378554442626, 14.870715868814507]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.189161124981384</v>
+        <v>0.1672602209333518</v>
       </c>
       <c r="O9" t="n">
-        <v>0.189161124981384</v>
+        <v>0.1672602209333518</v>
       </c>
       <c r="P9" t="n">
-        <v>2.635289933641888</v>
+        <v>2.471763589310888</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.49057903299300065, 5.761158900276778]</t>
+          <t>[-0.6603948521059628, 5.603922030727739]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.09641241402637934</v>
+        <v>0.118962421461648</v>
       </c>
       <c r="S9" t="n">
-        <v>0.09641241402637934</v>
+        <v>0.118962421461648</v>
       </c>
       <c r="T9" t="n">
-        <v>10.8692551196773</v>
+        <v>11.86897964746215</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[6.570773677912844, 15.167736561441753]</t>
+          <t>[7.365973893734797, 16.371985401189498]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>6.747022809783232e-06</v>
+        <v>3.269551415607808e-06</v>
       </c>
       <c r="W9" t="n">
-        <v>6.747022809783232e-06</v>
+        <v>3.269551415607808e-06</v>
       </c>
       <c r="X9" t="n">
-        <v>14.66546546546576</v>
+        <v>15.49879879879913</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.09867867867872</v>
+        <v>2.76216216216222</v>
       </c>
       <c r="Z9" t="n">
-        <v>27.2322522522528</v>
+        <v>28.23543543543605</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.74000000000043</v>
+        <v>24.60000000000041</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0605262341948215</v>
+        <v>0.2521458462366187</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0605262341948215</v>
+        <v>0.2521458462366187</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>7.093625124631878</v>
+        <v>4.929552738888036</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-0.7473449880312586, 14.934595237295014]</t>
+          <t>[-2.624973634397735, 12.484079112173808]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.07508449531689831</v>
+        <v>0.1954179287769577</v>
       </c>
       <c r="O10" t="n">
-        <v>0.07508449531689831</v>
+        <v>0.1954179287769577</v>
       </c>
       <c r="P10" t="n">
-        <v>2.018921405009657</v>
+        <v>1.956026657190042</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.2201316173686534, 3.81771119265066]</t>
+          <t>[-1.1132370364071935, 5.025290350787277]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.02866975618266543</v>
+        <v>0.2058601271406486</v>
       </c>
       <c r="S10" t="n">
-        <v>0.02866975618266543</v>
+        <v>0.2058601271406486</v>
       </c>
       <c r="T10" t="n">
-        <v>11.2910631994493</v>
+        <v>11.0327009990649</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[7.107450934454738, 15.474675464443864]</t>
+          <t>[6.819847621631498, 15.2455543764983]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.129146045470875e-06</v>
+        <v>3.668380221810708e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>2.129146045470875e-06</v>
+        <v>3.668380221810708e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>16.7905105105108</v>
+        <v>16.94174174174202</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.707787787787954</v>
+        <v>4.924924924925007</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.87323323323365</v>
+        <v>28.95855855855903</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.74000000000043</v>
+        <v>24.60000000000041</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1060988234729765</v>
+        <v>0.1418285140847309</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1060988234729765</v>
+        <v>0.1418285140847309</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>6.300168480686384</v>
+        <v>5.918520362538535</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-1.6781271450940096, 14.278464106466778]</t>
+          <t>[-1.5566756953653673, 13.393716420442438]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.1187319973293834</v>
+        <v>0.1177851304028588</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1187319973293834</v>
+        <v>0.1177851304028588</v>
       </c>
       <c r="P11" t="n">
-        <v>2.119553001521042</v>
+        <v>1.717026615475503</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-0.6792632764518469, 4.91836927949393]</t>
+          <t>[0.006289474781961069, 3.4277637561690453]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.1341856168129902</v>
+        <v>0.04919860270545029</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1341856168129902</v>
+        <v>0.04919860270545029</v>
       </c>
       <c r="T11" t="n">
-        <v>11.67700659246847</v>
+        <v>10.41634749713862</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[7.502134478637101, 15.851878706299837]</t>
+          <t>[6.19279440695441, 14.639900587322824]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.089655875974316e-06</v>
+        <v>1.025692578293658e-05</v>
       </c>
       <c r="W11" t="n">
-        <v>1.089655875974316e-06</v>
+        <v>1.025692578293658e-05</v>
       </c>
       <c r="X11" t="n">
-        <v>16.39427427427456</v>
+        <v>17.87747747747777</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.373953953954048</v>
+        <v>11.17957957957976</v>
       </c>
       <c r="Z11" t="n">
-        <v>27.41459459459507</v>
+        <v>24.57537537537578</v>
       </c>
     </row>
     <row r="12">
@@ -1425,7 +1425,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.74000000000043</v>
+        <v>24.60000000000041</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1102851995932534</v>
+        <v>0.02952871110945898</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1102851995932534</v>
+        <v>0.02952871110945898</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>5.243604082881559</v>
+        <v>6.675834416575372</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-1.3497486200200015, 11.83695678578312]</t>
+          <t>[0.827320540762706, 12.524348292388037]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.1161997469450713</v>
+        <v>0.02620086728140381</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1161997469450713</v>
+        <v>0.02620086728140381</v>
       </c>
       <c r="P12" t="n">
-        <v>1.956026657190042</v>
+        <v>1.440289725069195</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-0.012578949563923025, 3.924632263944006]</t>
+          <t>[0.1949737182408091, 2.6856057318975806]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.05141977095907269</v>
+        <v>0.02438267407129446</v>
       </c>
       <c r="S12" t="n">
-        <v>0.05141977095907269</v>
+        <v>0.02438267407129446</v>
       </c>
       <c r="T12" t="n">
-        <v>8.589271356461714</v>
+        <v>9.857976476612734</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[5.069129506287295, 12.109413206636132]</t>
+          <t>[6.378860414749994, 13.337092538475474]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.222282428825494e-05</v>
+        <v>8.486256297679518e-07</v>
       </c>
       <c r="W12" t="n">
-        <v>1.222282428825494e-05</v>
+        <v>8.486256297679518e-07</v>
       </c>
       <c r="X12" t="n">
-        <v>17.03815815815845</v>
+        <v>18.96096096096127</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.286786786786948</v>
+        <v>14.08528528528552</v>
       </c>
       <c r="Z12" t="n">
-        <v>24.78952952952996</v>
+        <v>23.83663663663703</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.74000000000043</v>
+        <v>24.60000000000041</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07320585711766625</v>
+        <v>0.1516691896450487</v>
       </c>
       <c r="I13" t="n">
-        <v>0.07320585711766625</v>
+        <v>0.1516691896450487</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>5.744438148870459</v>
+        <v>4.439987960418756</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-0.29499913634094277, 11.78387543408186]</t>
+          <t>[-1.5762065872559408, 10.456182508093454]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.06176714177456244</v>
+        <v>0.1441412293192941</v>
       </c>
       <c r="O13" t="n">
-        <v>0.06176714177456244</v>
+        <v>0.1441412293192941</v>
       </c>
       <c r="P13" t="n">
-        <v>1.905710858934349</v>
+        <v>1.276763380738195</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[0.20755266780473036, 3.6038690500639685]</t>
+          <t>[-1.490605523324886, 4.044132284801275]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.02869068669982222</v>
+        <v>0.3577258253593323</v>
       </c>
       <c r="S13" t="n">
-        <v>0.02869068669982222</v>
+        <v>0.3577258253593323</v>
       </c>
       <c r="T13" t="n">
-        <v>9.052961310271845</v>
+        <v>8.859358412489254</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[5.526722224488788, 12.579200396054903]</t>
+          <t>[5.6459868686694055, 12.072729956309102]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>5.197770498455156e-06</v>
+        <v>1.431923623673725e-06</v>
       </c>
       <c r="W13" t="n">
-        <v>5.197770498455156e-06</v>
+        <v>1.431923623673725e-06</v>
       </c>
       <c r="X13" t="n">
-        <v>17.23627627627657</v>
+        <v>19.60120120120152</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.54978978978997</v>
+        <v>8.76636636636651</v>
       </c>
       <c r="Z13" t="n">
-        <v>23.92276276276318</v>
+        <v>30.43603603603653</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>24.74000000000043</v>
+        <v>24.60000000000041</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08593643275467433</v>
+        <v>0.1021037970623915</v>
       </c>
       <c r="I14" t="n">
-        <v>0.08593643275467433</v>
+        <v>0.1021037970623915</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>5.608476194103035</v>
+        <v>5.948086264382585</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-0.080648579512129, 11.297600967718198]</t>
+          <t>[-0.6974119048955298, 12.5935844336607]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.05319683064082592</v>
+        <v>0.07812939627176418</v>
       </c>
       <c r="O14" t="n">
-        <v>0.05319683064082592</v>
+        <v>0.07812939627176418</v>
       </c>
       <c r="P14" t="n">
-        <v>1.465447624197041</v>
+        <v>1.616395018964117</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-0.03144737390980712, 2.962342622303889]</t>
+          <t>[0.09434212172942313, 3.1384479161988112]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.05479966685960447</v>
+        <v>0.037902023989552</v>
       </c>
       <c r="S14" t="n">
-        <v>0.05479966685960447</v>
+        <v>0.037902023989552</v>
       </c>
       <c r="T14" t="n">
-        <v>8.608127843405981</v>
+        <v>9.514931796986357</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[5.056556116844265, 12.159699569967696]</t>
+          <t>[5.602318164723857, 13.427545429248855]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1.362628161438728e-05</v>
+        <v>1.290859249047926e-05</v>
       </c>
       <c r="W14" t="n">
-        <v>1.362628161438728e-05</v>
+        <v>1.290859249047926e-05</v>
       </c>
       <c r="X14" t="n">
-        <v>18.96980980981014</v>
+        <v>18.27147147147178</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.07579579579602</v>
+        <v>12.31231231231252</v>
       </c>
       <c r="Z14" t="n">
-        <v>24.86382382382425</v>
+        <v>24.23063063063103</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>24.74000000000043</v>
+        <v>24.60000000000041</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.08467323808849014</v>
+        <v>0.0695498211950063</v>
       </c>
       <c r="I15" t="n">
-        <v>0.08467323808849014</v>
+        <v>0.0695498211950063</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>5.741312440134046</v>
+        <v>5.615514860158134</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-0.6655589712330858, 12.148183851501178]</t>
+          <t>[-0.44627900147689736, 11.677308721793166]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.07778835408640972</v>
+        <v>0.06859272478469469</v>
       </c>
       <c r="O15" t="n">
-        <v>0.07778835408640972</v>
+        <v>0.06859272478469469</v>
       </c>
       <c r="P15" t="n">
-        <v>1.239026532046425</v>
+        <v>1.364816027685656</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-0.5471843060306556, 3.025237370123505]</t>
+          <t>[-0.19497371824080822, 2.92460577361212]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.1692330133327717</v>
+        <v>0.08480323047554172</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1692330133327717</v>
+        <v>0.08480323047554172</v>
       </c>
       <c r="T15" t="n">
-        <v>9.103449030989818</v>
+        <v>8.401846300332217</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[5.492655073740602, 12.714242988239034]</t>
+          <t>[5.011657276772475, 11.792035323891959]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>7.09398430043251e-06</v>
+        <v>9.462589358522067e-06</v>
       </c>
       <c r="W15" t="n">
-        <v>7.09398430043251e-06</v>
+        <v>9.462589358522067e-06</v>
       </c>
       <c r="X15" t="n">
-        <v>19.86134134134169</v>
+        <v>19.25645645645677</v>
       </c>
       <c r="Y15" t="n">
-        <v>12.82814814814837</v>
+        <v>13.14954954954977</v>
       </c>
       <c r="Z15" t="n">
-        <v>26.894534534535</v>
+        <v>25.36336336336378</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_per_day_fixed_period_3_sawtooth_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_per_day_fixed_period_3_sawtooth_10_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.55000000000055</v>
+        <v>25.39000000000053</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.182393735354921</v>
+        <v>0.19782097214949</v>
       </c>
       <c r="I2" t="n">
-        <v>0.182393735354921</v>
+        <v>0.19782097214949</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>5.321400776614244</v>
+        <v>4.543745069556015</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-1.8689102597817957, 12.511711813010283]</t>
+          <t>[-2.0520716395938052, 11.139561778705835]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.1430442892820889</v>
+        <v>0.1721282088919083</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1430442892820889</v>
+        <v>0.1721282088919083</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.434000250287233</v>
+        <v>-1.74847398938531</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-3.660474323101621, 0.792473822527155]</t>
+          <t>[-4.8743429560202, 1.3773949772495797]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.2011672901143837</v>
+        <v>0.265883258742643</v>
       </c>
       <c r="S2" t="n">
-        <v>0.2011672901143837</v>
+        <v>0.265883258742643</v>
       </c>
       <c r="T2" t="n">
-        <v>10.81296338815584</v>
+        <v>10.39390575825159</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[6.649596212017105, 14.976330564294575]</t>
+          <t>[6.7909850780063055, 13.996826438496871]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>4.247773114585129e-06</v>
+        <v>5.964963867288731e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>4.247773114585129e-06</v>
+        <v>5.964963867288731e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>5.831231231231357</v>
+        <v>7.065485485485635</v>
       </c>
       <c r="Y2" t="n">
-        <v>-3.222522522522594</v>
+        <v>-5.565975975976095</v>
       </c>
       <c r="Z2" t="n">
-        <v>14.88498498498531</v>
+        <v>19.69694694694736</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.55000000000055</v>
+        <v>25.39000000000053</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06092589672268289</v>
+        <v>0.3171494275669599</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06092589672268289</v>
+        <v>0.3171494275669599</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>6.788725634092726</v>
+        <v>4.564492261232875</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-0.3652264933547382, 13.94267776154019]</t>
+          <t>[-3.1668907527166734, 12.295875275182423]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.06235062103451305</v>
+        <v>0.240638646204749</v>
       </c>
       <c r="O3" t="n">
-        <v>0.06235062103451305</v>
+        <v>0.240638646204749</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.786210838077079</v>
+        <v>-1.937158232844157</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.2705268866200043, -0.3018947895341544]</t>
+          <t>[-5.031579825569238, 1.1572633598809245]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.01944380036410309</v>
+        <v>0.2138569392879637</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01944380036410309</v>
+        <v>0.2138569392879637</v>
       </c>
       <c r="T3" t="n">
-        <v>10.94939056181293</v>
+        <v>12.01911005196537</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[6.903549392629213, 14.995231730996647]</t>
+          <t>[7.730372910191212, 16.307847193739534]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.023729830602505e-06</v>
+        <v>1.049330430991091e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>2.023729830602505e-06</v>
+        <v>1.049330430991091e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>7.263463463463619</v>
+        <v>7.827947947948111</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.227627627627654</v>
+        <v>-4.676436436436532</v>
       </c>
       <c r="Z3" t="n">
-        <v>13.29929929929958</v>
+        <v>20.33233233233275</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.55000000000055</v>
+        <v>25.39000000000053</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0732001129789932</v>
+        <v>0.1808990164952675</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0732001129789932</v>
+        <v>0.1808990164952675</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>6.1016356456994</v>
+        <v>5.536224518468675</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-0.7397473066362572, 12.943018598035056]</t>
+          <t>[-2.4110297509529417, 13.483478787890292]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.0791582708416807</v>
+        <v>0.167459417594674</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0791582708416807</v>
+        <v>0.167459417594674</v>
       </c>
       <c r="P4" t="n">
-        <v>-2.402579366709311</v>
+        <v>-2.415158316273234</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-5.434106211614778, 0.6289474781961557]</t>
+          <t>[-5.553606232472047, 0.7232895999255788]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.1174350449042469</v>
+        <v>0.1281631084782258</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1174350449042469</v>
+        <v>0.1281631084782258</v>
       </c>
       <c r="T4" t="n">
-        <v>10.34057165520627</v>
+        <v>10.59355448238355</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[6.715171818131548, 13.965971492280996]</t>
+          <t>[6.4756986628799, 14.711410301887206]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>7.460604833919859e-07</v>
+        <v>5.015784570794324e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>7.460604833919859e-07</v>
+        <v>5.015784570794324e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>9.769869869870082</v>
+        <v>9.759519519519722</v>
       </c>
       <c r="Y4" t="n">
-        <v>-2.557557557557617</v>
+        <v>-2.922772772772838</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.09729729729778</v>
+        <v>22.44181181181228</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.55000000000055</v>
+        <v>25.39000000000053</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2141117523654474</v>
+        <v>0.1821139814716901</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2141117523654474</v>
+        <v>0.1821139814716901</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>4.744697695690796</v>
+        <v>5.519604502186639</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-2.263387607907374, 11.752782999288966]</t>
+          <t>[-1.9711866511193747, 13.010395655492653]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.1794726564004889</v>
+        <v>0.1447546861313591</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1794726564004889</v>
+        <v>0.1447546861313591</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.616421509296004</v>
+        <v>-2.767368904063081</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-5.691974677675201, 0.45913165908319353]</t>
+          <t>[-5.8177641733144325, 0.2830263651882703]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.09351577860857674</v>
+        <v>0.07430173867302958</v>
       </c>
       <c r="S5" t="n">
-        <v>0.09351577860857674</v>
+        <v>0.07430173867302958</v>
       </c>
       <c r="T5" t="n">
-        <v>10.37305802593923</v>
+        <v>10.26839430994442</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[6.693241871384249, 14.05287418049421]</t>
+          <t>[6.210459795974364, 14.326328823914467]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9.376973959529522e-07</v>
+        <v>6.664765699770925e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>9.376973959529522e-07</v>
+        <v>6.664765699770925e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>10.63943943943967</v>
+        <v>11.18278278278302</v>
       </c>
       <c r="Y5" t="n">
-        <v>-1.867017017017059</v>
+        <v>-1.14369369369372</v>
       </c>
       <c r="Z5" t="n">
-        <v>23.1458958958964</v>
+        <v>23.50925925925975</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.55000000000055</v>
+        <v>25.39000000000053</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1420197511469203</v>
+        <v>0.2532640452628867</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1420197511469203</v>
+        <v>0.2532640452628867</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>6.151333739740043</v>
+        <v>4.992332479256202</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-1.6044264876143473, 13.907093967094433]</t>
+          <t>[-3.119860837605181, 13.104525796117585]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.1171652047696998</v>
+        <v>0.221585419389335</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1171652047696998</v>
+        <v>0.221585419389335</v>
       </c>
       <c r="P6" t="n">
-        <v>-2.842842601446619</v>
+        <v>-2.540947811912465</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-4.767421884726854, -0.9182633181663848]</t>
+          <t>[-5.679395728111278, 0.5975001042863477]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.004697704622453225</v>
+        <v>0.1099431722083277</v>
       </c>
       <c r="S6" t="n">
-        <v>0.004697704622453225</v>
+        <v>0.1099431722083277</v>
       </c>
       <c r="T6" t="n">
-        <v>11.02194190585711</v>
+        <v>11.06485016523254</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[6.82288477658609, 15.220999035128127]</t>
+          <t>[6.933546664670079, 15.196153665794998]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>3.521154244845448e-06</v>
+        <v>2.449406839355461e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>3.521154244845448e-06</v>
+        <v>2.449406839355461e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>11.56016016016041</v>
+        <v>10.26782782782804</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.73403403403411</v>
+        <v>-2.414464464464517</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.38628628628671</v>
+        <v>22.9501201201206</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.55000000000055</v>
+        <v>25.39000000000053</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1681981839067519</v>
+        <v>0.07372466215806495</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1681981839067519</v>
+        <v>0.07372466215806495</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>5.401575121305743</v>
+        <v>6.109104717712896</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-1.4161878053949266, 12.219338048006414]</t>
+          <t>[-0.011865225099699117, 12.23007466052549]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.1175482955915916</v>
+        <v>0.05042708151991349</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1175482955915916</v>
+        <v>0.05042708151991349</v>
       </c>
       <c r="P7" t="n">
-        <v>-3.018947895341543</v>
+        <v>-3.119579491852928</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-5.597632555945778, -0.44026323473730855]</t>
+          <t>[-4.4655270951927, -1.7736318885131563]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.02278130545144208</v>
+        <v>2.752320280907661e-05</v>
       </c>
       <c r="S7" t="n">
-        <v>0.02278130545144208</v>
+        <v>2.752320280907661e-05</v>
       </c>
       <c r="T7" t="n">
-        <v>8.88529923136087</v>
+        <v>10.42632139001692</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[5.01936998753502, 12.75122847518672]</t>
+          <t>[6.825035753609082, 14.027607026424764]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>3.127355575505142e-05</v>
+        <v>5.557156184110568e-07</v>
       </c>
       <c r="W7" t="n">
-        <v>3.127355575505142e-05</v>
+        <v>5.557156184110568e-07</v>
       </c>
       <c r="X7" t="n">
-        <v>12.27627627627654</v>
+        <v>12.60604604604631</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.790290290290329</v>
+        <v>7.167147147147295</v>
       </c>
       <c r="Z7" t="n">
-        <v>22.76226226226276</v>
+        <v>18.04494494494532</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.55000000000055</v>
+        <v>25.39000000000053</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2001054815778973</v>
+        <v>0.1548455385597296</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2001054815778973</v>
+        <v>0.1548455385597296</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>4.782604211502598</v>
+        <v>5.014832179846887</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-2.2033636490169677, 11.768572072022163]</t>
+          <t>[-1.86462471888162, 11.894289078575394]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.1747542437331042</v>
+        <v>0.149006766314941</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1747542437331042</v>
+        <v>0.149006766314941</v>
       </c>
       <c r="P8" t="n">
-        <v>2.371131992799504</v>
+        <v>2.496921488438735</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.761026448617347, 5.503290434216354]</t>
+          <t>[-0.6163685286322318, 5.610211505509701]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.1343236599594162</v>
+        <v>0.1132251849127761</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1343236599594162</v>
+        <v>0.1132251849127761</v>
       </c>
       <c r="T8" t="n">
-        <v>11.21620281703205</v>
+        <v>10.23107154209736</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[7.422731261708236, 15.009674372355867]</t>
+          <t>[6.586677957065934, 13.875465127128795]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>3.639862453663767e-07</v>
+        <v>1.014966803492001e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>3.639862453663767e-07</v>
+        <v>1.014966803492001e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>15.90800800800835</v>
+        <v>15.3000800800804</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.171371371371443</v>
+        <v>2.719449449449504</v>
       </c>
       <c r="Z8" t="n">
-        <v>28.64464464464526</v>
+        <v>27.88071071071129</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.55000000000055</v>
+        <v>25.39000000000053</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1602024317953082</v>
+        <v>0.136269183448241</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1602024317953082</v>
+        <v>0.136269183448241</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>6.107539006685122</v>
+        <v>6.347744175345193</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-2.6556378554442626, 14.870715868814507]</t>
+          <t>[-2.2040147898537192, 14.899503140544105]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.1672602209333518</v>
+        <v>0.1418906345540374</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1672602209333518</v>
+        <v>0.1418906345540374</v>
       </c>
       <c r="P9" t="n">
-        <v>2.471763589310888</v>
+        <v>2.408868841491273</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.6603948521059628, 5.603922030727739]</t>
+          <t>[-0.698131700797731, 5.515869383780277]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.118962421461648</v>
+        <v>0.1254019909022523</v>
       </c>
       <c r="S9" t="n">
-        <v>0.118962421461648</v>
+        <v>0.1254019909022523</v>
       </c>
       <c r="T9" t="n">
-        <v>11.86897964746215</v>
+        <v>11.58243930545121</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[7.365973893734797, 16.371985401189498]</t>
+          <t>[7.100582025627267, 16.06429658527516]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>3.269551415607808e-06</v>
+        <v>4.634279225257387e-06</v>
       </c>
       <c r="W9" t="n">
-        <v>3.269551415607808e-06</v>
+        <v>4.634279225257387e-06</v>
       </c>
       <c r="X9" t="n">
-        <v>15.49879879879913</v>
+        <v>15.65589589589622</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.76216216216222</v>
+        <v>3.100680680680748</v>
       </c>
       <c r="Z9" t="n">
-        <v>28.23543543543605</v>
+        <v>28.2111111111117</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.60000000000041</v>
+        <v>24.48000000000039</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2521458462366187</v>
+        <v>0.1071327213306255</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2521458462366187</v>
+        <v>0.1071327213306255</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>4.929552738888036</v>
+        <v>6.506174131321199</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-2.624973634397735, 12.484079112173808]</t>
+          <t>[-1.472757660858104, 14.485105923500502]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.1954179287769577</v>
+        <v>0.1074908078798458</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1954179287769577</v>
+        <v>0.1074908078798458</v>
       </c>
       <c r="P10" t="n">
-        <v>1.956026657190042</v>
+        <v>2.018921405009657</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.1132370364071935, 5.025290350787277]</t>
+          <t>[-0.25786846606042424, 4.295711276079738]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.2058601271406486</v>
+        <v>0.08084072749086979</v>
       </c>
       <c r="S10" t="n">
-        <v>0.2058601271406486</v>
+        <v>0.08084072749086979</v>
       </c>
       <c r="T10" t="n">
-        <v>11.0327009990649</v>
+        <v>11.10416843898426</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[6.819847621631498, 15.2455543764983]</t>
+          <t>[6.793318417688922, 15.415018460279597]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>3.668380221810708e-06</v>
+        <v>4.906005492744114e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>3.668380221810708e-06</v>
+        <v>4.906005492744114e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>16.94174174174202</v>
+        <v>16.61405405405432</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.924924924925007</v>
+        <v>7.743423423423545</v>
       </c>
       <c r="Z10" t="n">
-        <v>28.95855855855903</v>
+        <v>25.48468468468509</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.60000000000041</v>
+        <v>24.48000000000039</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1418285140847309</v>
+        <v>0.07950149288972996</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1418285140847309</v>
+        <v>0.07950149288972996</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>5.918520362538535</v>
+        <v>6.216794978340324</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-1.5566756953653673, 13.393716420442438]</t>
+          <t>[-0.8981587130278772, 13.331748669708526]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.1177851304028588</v>
+        <v>0.08522946579497681</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1177851304028588</v>
+        <v>0.08522946579497681</v>
       </c>
       <c r="P11" t="n">
-        <v>1.717026615475503</v>
+        <v>1.905710858934349</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.006289474781961069, 3.4277637561690453]</t>
+          <t>[0.14465791998511612, 3.6667637978835828]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.04919860270545029</v>
+        <v>0.03456433819943117</v>
       </c>
       <c r="S11" t="n">
-        <v>0.04919860270545029</v>
+        <v>0.03456433819943117</v>
       </c>
       <c r="T11" t="n">
-        <v>10.41634749713862</v>
+        <v>10.51564856102717</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[6.19279440695441, 14.639900587322824]</t>
+          <t>[6.656110762857541, 14.3751863591968]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.025692578293658e-05</v>
+        <v>1.786902891209863e-06</v>
       </c>
       <c r="W11" t="n">
-        <v>1.025692578293658e-05</v>
+        <v>1.786902891209863e-06</v>
       </c>
       <c r="X11" t="n">
-        <v>17.87747747747777</v>
+        <v>17.0551351351354</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.17957957957976</v>
+        <v>10.19387387387403</v>
       </c>
       <c r="Z11" t="n">
-        <v>24.57537537537578</v>
+        <v>23.91639639639677</v>
       </c>
     </row>
     <row r="12">
@@ -1425,7 +1425,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.60000000000041</v>
+        <v>24.48000000000039</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02952871110945898</v>
+        <v>0.1087993825974644</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02952871110945898</v>
+        <v>0.1087993825974644</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>6.675834416575372</v>
+        <v>5.715511409635933</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[0.827320540762706, 12.524348292388037]</t>
+          <t>[-1.3789761539141523, 12.809998973186019]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.02620086728140381</v>
+        <v>0.1116575558496991</v>
       </c>
       <c r="O12" t="n">
-        <v>0.02620086728140381</v>
+        <v>0.1116575558496991</v>
       </c>
       <c r="P12" t="n">
-        <v>1.440289725069195</v>
+        <v>2.056658253701426</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.1949737182408091, 2.6856057318975806]</t>
+          <t>[-0.08805264694746207, 4.2013691543503136]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.02438267407129446</v>
+        <v>0.05974485832700149</v>
       </c>
       <c r="S12" t="n">
-        <v>0.02438267407129446</v>
+        <v>0.05974485832700149</v>
       </c>
       <c r="T12" t="n">
-        <v>9.857976476612734</v>
+        <v>8.938618600305761</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[6.378860414749994, 13.337092538475474]</t>
+          <t>[5.139682876323706, 12.737554324287816]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>8.486256297679518e-07</v>
+        <v>2.181637112097512e-05</v>
       </c>
       <c r="W12" t="n">
-        <v>8.486256297679518e-07</v>
+        <v>2.181637112097512e-05</v>
       </c>
       <c r="X12" t="n">
-        <v>18.96096096096127</v>
+        <v>16.46702702702729</v>
       </c>
       <c r="Y12" t="n">
-        <v>14.08528528528552</v>
+        <v>8.11099099099112</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.83663663663703</v>
+        <v>24.82306306306346</v>
       </c>
     </row>
     <row r="13">
@@ -1511,7 +1511,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.60000000000041</v>
+        <v>24.48000000000039</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516691896450487</v>
+        <v>0.0308146522134779</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1516691896450487</v>
+        <v>0.0308146522134779</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>4.439987960418756</v>
+        <v>6.450055400875673</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-1.5762065872559408, 10.456182508093454]</t>
+          <t>[0.4426721512316618, 12.457438650519684]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.1441412293192941</v>
+        <v>0.03593122677614113</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1441412293192941</v>
+        <v>0.03593122677614113</v>
       </c>
       <c r="P13" t="n">
-        <v>1.276763380738195</v>
+        <v>1.905710858934349</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-1.490605523324886, 4.044132284801275]</t>
+          <t>[0.5849211547224238, 3.226500563146275]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.3577258253593323</v>
+        <v>0.00566005422972049</v>
       </c>
       <c r="S13" t="n">
-        <v>0.3577258253593323</v>
+        <v>0.00566005422972049</v>
       </c>
       <c r="T13" t="n">
-        <v>8.859358412489254</v>
+        <v>9.119733693433446</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[5.6459868686694055, 12.072729956309102]</t>
+          <t>[5.743179077702594, 12.496288309164298]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.431923623673725e-06</v>
+        <v>2.100046300856917e-06</v>
       </c>
       <c r="W13" t="n">
-        <v>1.431923623673725e-06</v>
+        <v>2.100046300856917e-06</v>
       </c>
       <c r="X13" t="n">
-        <v>19.60120120120152</v>
+        <v>17.0551351351354</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.76636636636651</v>
+        <v>11.90918918918937</v>
       </c>
       <c r="Z13" t="n">
-        <v>30.43603603603653</v>
+        <v>22.20108108108143</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>24.60000000000041</v>
+        <v>24.48000000000039</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1021037970623915</v>
+        <v>0.1776772096957934</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1021037970623915</v>
+        <v>0.1776772096957934</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>5.948086264382585</v>
+        <v>4.940650342294047</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-0.6974119048955298, 12.5935844336607]</t>
+          <t>[-1.6060621220305933, 11.487362806618687]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.07812939627176418</v>
+        <v>0.1355076116691678</v>
       </c>
       <c r="O14" t="n">
-        <v>0.07812939627176418</v>
+        <v>0.1355076116691678</v>
       </c>
       <c r="P14" t="n">
-        <v>1.616395018964117</v>
+        <v>1.729605565039425</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[0.09434212172942313, 3.1384479161988112]</t>
+          <t>[-1.1887107337907334, 4.647921863869584]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.037902023989552</v>
+        <v>0.2388490581867553</v>
       </c>
       <c r="S14" t="n">
-        <v>0.037902023989552</v>
+        <v>0.2388490581867553</v>
       </c>
       <c r="T14" t="n">
-        <v>9.514931796986357</v>
+        <v>9.475962127389295</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[5.602318164723857, 13.427545429248855]</t>
+          <t>[5.731683838440432, 13.220240416338157]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1.290859249047926e-05</v>
+        <v>6.64969508723523e-06</v>
       </c>
       <c r="W14" t="n">
-        <v>1.290859249047926e-05</v>
+        <v>6.64969508723523e-06</v>
       </c>
       <c r="X14" t="n">
-        <v>18.27147147147178</v>
+        <v>17.74126126126154</v>
       </c>
       <c r="Y14" t="n">
-        <v>12.31231231231252</v>
+        <v>6.37117117117127</v>
       </c>
       <c r="Z14" t="n">
-        <v>24.23063063063103</v>
+        <v>29.11135135135181</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>24.60000000000041</v>
+        <v>24.48000000000039</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0695498211950063</v>
+        <v>0.1901024140061643</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0695498211950063</v>
+        <v>0.1901024140061643</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>5.615514860158134</v>
+        <v>4.896613653695509</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-0.44627900147689736, 11.677308721793166]</t>
+          <t>[-1.467140751481871, 11.260368058872888]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.06859272478469469</v>
+        <v>0.1282044218712022</v>
       </c>
       <c r="O15" t="n">
-        <v>0.06859272478469469</v>
+        <v>0.1282044218712022</v>
       </c>
       <c r="P15" t="n">
-        <v>1.364816027685656</v>
+        <v>1.402552876377426</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-0.19497371824080822, 2.92460577361212]</t>
+          <t>[-1.5786581702723472, 4.383763923027199]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.08480323047554172</v>
+        <v>0.3484127212043093</v>
       </c>
       <c r="S15" t="n">
-        <v>0.08480323047554172</v>
+        <v>0.3484127212043093</v>
       </c>
       <c r="T15" t="n">
-        <v>8.401846300332217</v>
+        <v>10.17432079357809</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[5.011657276772475, 11.792035323891959]</t>
+          <t>[6.3873443904051825, 13.96129719675099]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>9.462589358522067e-06</v>
+        <v>2.313859679858865e-06</v>
       </c>
       <c r="W15" t="n">
-        <v>9.462589358522067e-06</v>
+        <v>2.313859679858865e-06</v>
       </c>
       <c r="X15" t="n">
-        <v>19.25645645645677</v>
+        <v>19.0154954954958</v>
       </c>
       <c r="Y15" t="n">
-        <v>13.14954954954977</v>
+        <v>7.400360360360478</v>
       </c>
       <c r="Z15" t="n">
-        <v>25.36336336336378</v>
+        <v>30.63063063063111</v>
       </c>
     </row>
   </sheetData>
